--- a/experimental_results/table1.xlsx
+++ b/experimental_results/table1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programs\QCT_ML_Git\Supervised-Learning-Enhanced-Quantum-Circuit-Transformation\experimental_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE44EA73-72AB-47F4-A1B7-8170F524F0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F45DC21-3FD2-4873-8310-B063D0554704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="29840" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,8 +31,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>周祥臻</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{F5717940-59EA-4EB5-A590-70E42B9A9ACE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>周祥臻:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+Total # of Gates in the output circuit (original gates plus added CNOTs)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>4X4</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -140,13 +174,51 @@
   </si>
   <si>
     <t>test/169.qasm</t>
+  </si>
+  <si>
+    <t>Google Sycamore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BASE-ANN(BASE)-QCT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test/490.qasm</t>
+  </si>
+  <si>
+    <t>test/491.qasm</t>
+  </si>
+  <si>
+    <t>test/492.qasm</t>
+  </si>
+  <si>
+    <t>test/493.qasm</t>
+  </si>
+  <si>
+    <t>test/494.qasm</t>
+  </si>
+  <si>
+    <t>test/495.qasm</t>
+  </si>
+  <si>
+    <t>test/496.qasm</t>
+  </si>
+  <si>
+    <t>test/497.qasm</t>
+  </si>
+  <si>
+    <t>test/498.qasm</t>
+  </si>
+  <si>
+    <t>test/499.qasm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +239,19 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -189,12 +274,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -479,11 +570,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15:O27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -505,21 +596,21 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -828,21 +919,21 @@
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -1148,73 +1239,285 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J29" s="1"/>
+      <c r="A29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D30" s="1"/>
-      <c r="F30" s="2"/>
-      <c r="J30" s="1"/>
+      <c r="A30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2270</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1.0049414634704501</v>
+      </c>
       <c r="D31" s="1"/>
-      <c r="F31" s="2"/>
+      <c r="E31" s="4">
+        <v>2006</v>
+      </c>
+      <c r="F31" s="2">
+        <v>15.866237878799399</v>
+      </c>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2528</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1.1225113868713299</v>
+      </c>
       <c r="D32" s="1"/>
-      <c r="F32" s="2"/>
+      <c r="E32" s="4">
+        <v>2072</v>
+      </c>
+      <c r="F32" s="2">
+        <v>18.419847011566102</v>
+      </c>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2438</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.92242217063903797</v>
+      </c>
       <c r="D33" s="1"/>
-      <c r="F33" s="2"/>
+      <c r="E33" s="4">
+        <v>1907</v>
+      </c>
+      <c r="F33" s="2">
+        <v>19.288957118988002</v>
+      </c>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2390</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.98493003845214799</v>
+      </c>
       <c r="D34" s="1"/>
-      <c r="F34" s="2"/>
+      <c r="E34" s="4">
+        <v>2003</v>
+      </c>
+      <c r="F34" s="2">
+        <v>20.650986909866301</v>
+      </c>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="3">
+        <v>2696</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1.13720202445983</v>
+      </c>
       <c r="D35" s="1"/>
-      <c r="F35" s="2"/>
+      <c r="E35" s="4">
+        <v>1946</v>
+      </c>
+      <c r="F35" s="2">
+        <v>20.196078300476</v>
+      </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2153</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1.0373938083648599</v>
+      </c>
       <c r="D36" s="1"/>
+      <c r="E36" s="4">
+        <v>1994</v>
+      </c>
+      <c r="F36" s="4">
+        <v>18.222056150436401</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="3">
+        <v>2564</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1.2184591293334901</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1979</v>
+      </c>
+      <c r="F37" s="4">
+        <v>14.882089853286701</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2486</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1.08583855628967</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1859</v>
+      </c>
+      <c r="F38" s="4">
+        <v>14.298603773117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="3">
+        <v>2516</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1.18399834632873</v>
+      </c>
+      <c r="E39" s="4">
+        <v>2027</v>
+      </c>
+      <c r="F39" s="4">
+        <v>17.901097536087001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2423</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1.09053826332092</v>
+      </c>
+      <c r="E40" s="4">
+        <v>2111</v>
+      </c>
+      <c r="F40" s="4">
+        <v>24.699656724929799</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="3">
+        <f>SUM(B31:B40)</f>
+        <v>24464</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" ref="C41:F41" si="2">SUM(C31:C40)</f>
+        <v>10.788235187530464</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" si="2"/>
+        <v>19904</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="2"/>
+        <v>184.42561125755273</v>
+      </c>
+      <c r="G41" s="2">
+        <f>(B41-E41)/(B41-2000)</f>
+        <v>0.20299145299145299</v>
+      </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
+      <c r="A42" s="5"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
+      <c r="A43" s="5"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
+      <c r="A44" s="5"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
+      <c r="A45" s="5"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
+      <c r="A46" s="5"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
+      <c r="A47" s="5"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
+      <c r="A48" s="5"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
+      <c r="A49" s="5"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
+      <c r="A50" s="5"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3"/>
+      <c r="A51" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
@@ -1223,9 +1526,12 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>